--- a/output/google_maps_data_Pasar_Tradisional_Kota_Yogyakarta.xlsx
+++ b/output/google_maps_data_Pasar_Tradisional_Kota_Yogyakarta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -502,16 +497,15 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/Pasar+Tradisional+Kota+Yogyakarta/@-7.8053374,110.3684985,15z?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -526,25 +520,24 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.6</v>
+        <v>-7.808128</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.808128</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.360019</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Ngasem/@-7.8081285,110.3419944,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a5792252f4e3f:0x36fbd296a07c1da7!8m2!3d-7.8081285!4d110.3600188!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgESdHJhZGl0aW9uYWxfbWFya2V04AEA!16s%2Fg%2F11b5m2phht?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Ngasem/@-7.8081285,110.3419944,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a5792252f4e3f:0x36fbd296a07c1da7!8m2!3d-7.8081285!4d110.3600188!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgESdHJhZGl0aW9uYWxfbWFya2V04AEA!16s%2Fg%2F11b5m2phht?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>12 menit lalu</t>
         </is>
@@ -563,25 +556,24 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.6</v>
+        <v>-7.79907</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.79907</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.368408</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Beringharjo+Yogyakarta/@-7.8081285,110.3419944,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a578648be564f:0x7c0fcda6bd455d3d!8m2!3d-7.7990701!4d110.3684079!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgEGbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJDTlVwcGNEZDNSUkFC4AEA-gEFCKUBEDI!16s%2Fg%2F11f3qx02_3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Beringharjo+Yogyakarta/@-7.8081285,110.3419944,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a578648be564f:0x7c0fcda6bd455d3d!8m2!3d-7.7990701!4d110.3684079!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgEGbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJDTlVwcGNEZDNSUkFC4AEA-gEFCKUBEDI!16s%2Fg%2F11f3qx02_3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -600,25 +592,24 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.5</v>
+        <v>-7.813789</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.813789</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.36937</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Tradisional+Pujokusuman/@-7.8137893,110.3513451,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a5799aaa63c5b:0xb191493a7eeeb16b!8m2!3d-7.8137893!4d110.3693695!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgESdHJhZGl0aW9uYWxfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5IZFdOcFJWWlJFQUXgAQD6AQQIABBG!16s%2Fg%2F11g6nhb58y?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Tradisional+Pujokusuman/@-7.8137893,110.3513451,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a5799aaa63c5b:0xb191493a7eeeb16b!8m2!3d-7.8137893!4d110.3693695!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgESdHJhZGl0aW9uYWxfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5IZFdOcFJWWlJFQUXgAQD6AQQIABBG!16s%2Fg%2F11g6nhb58y?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -637,25 +628,24 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.6</v>
+        <v>-7.828331</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.828331</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.399795</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Legi+Kotagede/@-7.8283312,110.3817705,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a5718fb6c5bf7:0x8bea519e87424677!8m2!3d-7.8283312!4d110.3997949!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgESdHJhZGl0aW9uYWxfbWFya2V04AEA!16s%2Fg%2F1ptw49sl1?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Legi+Kotagede/@-7.8283312,110.3817705,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a5718fb6c5bf7:0x8bea519e87424677!8m2!3d-7.8283312!4d110.3997949!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgESdHJhZGl0aW9uYWxfbWFya2V04AEA!16s%2Fg%2F1ptw49sl1?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>17 jam lalu</t>
         </is>
@@ -674,25 +664,24 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.4</v>
+        <v>-7.792208</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.792208</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.373425</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Lempuyangan/@-7.7922079,110.3554002,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a582bc37c8555:0x427734de81c28b10!8m2!3d-7.7922079!4d110.3734246!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgEGbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJHT1RnelozVkJSUkFC4AEA-gEECAAQIA!16s%2Fg%2F1hm2l2znz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Lempuyangan/@-7.7922079,110.3554002,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a582bc37c8555:0x427734de81c28b10!8m2!3d-7.7922079!4d110.3734246!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgEGbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJHT1RnelozVkJSUkFC4AEA-gEECAAQIA!16s%2Fg%2F1hm2l2znz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -711,25 +700,24 @@
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.5</v>
+        <v>-7.795639</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.795639</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.361298</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Senen/@-7.7956394,110.3432731,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a5827516ba389:0x5b0c107dea397037!8m2!3d-7.7956394!4d110.3612975!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgESdHJhZGl0aW9uYWxfbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5QZUdSTFJHZG5SUkFC4AEA-gEECAAQOQ!16s%2Fg%2F11c6y_vxd_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Senen/@-7.7956394,110.3432731,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a5827516ba389:0x5b0c107dea397037!8m2!3d-7.7956394!4d110.3612975!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgESdHJhZGl0aW9uYWxfbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5QZUdSTFJHZG5SUkFC4AEA-gEECAAQOQ!16s%2Fg%2F11c6y_vxd_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -752,25 +740,24 @@
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.5</v>
+        <v>-7.78247</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.78247</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.365721</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Kranggan+(%EA%A7%8B%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%8F%EA%A6%BF%EA%A6%81%EA%A6%92%EA%A6%A4%EA%A7%80)/@-7.7956394,110.3432731,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a583a6f1c71c5:0x343c42f7032722b7!8m2!3d-7.7824702!4d110.3657212!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgEOcHJvZHVjZV9tYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUnRjRXBJYTNGblJSQULgAQD6AQQIABAv!16s%2Fg%2F1hm2fpp1j?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Kranggan+(%EA%A7%8B%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%8F%EA%A6%BF%EA%A6%81%EA%A6%92%EA%A6%A4%EA%A7%80)/@-7.7956394,110.3432731,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a583a6f1c71c5:0x343c42f7032722b7!8m2!3d-7.7824702!4d110.3657212!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgEOcHJvZHVjZV9tYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUnRjRXBJYTNGblJSQULgAQD6AQQIABAv!16s%2Fg%2F1hm2fpp1j?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>16 jam lalu</t>
         </is>
@@ -793,25 +780,24 @@
           <t>0882-3304-3615</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.5</v>
+        <v>-7.780264</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.780264</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.337461</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Tradisional+Telogorejo/@-7.7802642,110.3194362,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a59d31486f8db:0xe6198e92405b4528!8m2!3d-7.7802642!4d110.3374606!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgEGbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU10Tm5WaVIzSm5SUkFC4AEA-gEECAAQRg!16s%2Fg%2F11m21cw5tw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Tradisional+Telogorejo/@-7.7802642,110.3194362,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a59d31486f8db:0xe6198e92405b4528!8m2!3d-7.7802642!4d110.3374606!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgEGbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU10Tm5WaVIzSm5SUkFC4AEA-gEECAAQRg!16s%2Fg%2F11m21cw5tw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -830,25 +816,24 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.4</v>
+        <v>-7.8142</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.8142</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.362914</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Gading/@-7.8142,110.34489,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a5796570dd47d:0xb949e0c2071ee265!8m2!3d-7.8142!4d110.3629144!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgESdHJhZGl0aW9uYWxfbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVF0TkY5cE9EQkJSUkFC4AEA-gEECH8QPg!16s%2Fg%2F11cjhl92sm?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Gading/@-7.8142,110.34489,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a5796570dd47d:0xb949e0c2071ee265!8m2!3d-7.8142!4d110.3629144!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgESdHJhZGl0aW9uYWxfbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVF0TkY5cE9EQkJSUkFC4AEA-gEECH8QPg!16s%2Fg%2F11cjhl92sm?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -867,25 +852,24 @@
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.4</v>
+        <v>-7.80185</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.80185</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.377199</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Sentul+Yogyakarta/@-7.8018497,110.3591744,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a5782135700a9:0x9f5e811571ff616d!8m2!3d-7.8018497!4d110.3771988!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgEGbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU55Y205bGFsSlJFQUXgAQD6AQQIABAx!16s%2Fg%2F1hm4q9lb_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Sentul+Yogyakarta/@-7.8018497,110.3591744,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a5782135700a9:0x9f5e811571ff616d!8m2!3d-7.8018497!4d110.3771988!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgEGbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU55Y205bGFsSlJFQUXgAQD6AQQIABAx!16s%2Fg%2F1hm4q9lb_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -908,25 +892,24 @@
           <t>0815-6801-273</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.4</v>
+        <v>-7.788996</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.788996</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.390605</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Talok/@-7.7889964,110.3725805,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a59d0ada64273:0x9936cd5231a3e683!8m2!3d-7.7889964!4d110.3906049!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgEGbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJDZUdGNmIwZEJFQUXgAQD6AQQIABAp!16s%2Fg%2F1pzswn1yr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Talok/@-7.7889964,110.3725805,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a59d0ada64273:0x9936cd5231a3e683!8m2!3d-7.7889964!4d110.3906049!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgEGbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJDZUdGNmIwZEJFQUXgAQD6AQQIABAp!16s%2Fg%2F1pzswn1yr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -945,25 +928,24 @@
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.4</v>
+        <v>-7.80966</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.80966</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.349856</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Legi+Patangpuluhan/@-7.80966,110.3318314,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a57edcd21a431:0x68cd3c233b683290!8m2!3d-7.80966!4d110.3498558!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgESdHJhZGl0aW9uYWxfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5TY1hZelRWZDNFQUXgAQD6AQQIABAm!16s%2Fg%2F1hm6l8jl_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Legi+Patangpuluhan/@-7.80966,110.3318314,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a57edcd21a431:0x68cd3c233b683290!8m2!3d-7.80966!4d110.3498558!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgESdHJhZGl0aW9uYWxfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5TY1hZelRWZDNFQUXgAQD6AQQIABAm!16s%2Fg%2F1hm6l8jl_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -982,25 +964,24 @@
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.4</v>
+        <v>-7.796547</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.796547</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.362263</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Pathuk/@-7.7965468,110.3442386,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a5789dc63fbc1:0x8351dea58e08b227!8m2!3d-7.7965468!4d110.362263!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgEGbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJRYTFwWVdXRjNFQUXgAQD6AQQIchBJ!16s%2Fg%2F1hm4b8g50?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Pathuk/@-7.7965468,110.3442386,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a5789dc63fbc1:0x8351dea58e08b227!8m2!3d-7.7965468!4d110.362263!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgEGbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJRYTFwWVdXRjNFQUXgAQD6AQQIchBJ!16s%2Fg%2F1hm4b8g50?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -1019,25 +1000,24 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.6</v>
+        <v>-7.799982</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.799982</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.360866</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Waru/@-7.7965468,110.3442386,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a57f21f7ccd41:0x7594d61811b09893!8m2!3d-7.7999824!4d110.3608663!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgESdHJhZGl0aW9uYWxfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU10Y0RoeGJrbG5FQUXgAQD6AQQIABA0!16s%2Fg%2F11s2sdj6_h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Waru/@-7.7965468,110.3442386,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a57f21f7ccd41:0x7594d61811b09893!8m2!3d-7.7999824!4d110.3608663!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgESdHJhZGl0aW9uYWxfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU10Y0RoeGJrbG5FQUXgAQD6AQQIABA0!16s%2Fg%2F11s2sdj6_h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1056,25 +1036,24 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.5</v>
+        <v>-7.824557</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.824557</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.373333</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PASAR+TELO+KARANGKAJEN/@-7.824557,110.3553086,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a57a67b5c9edd:0xe839e384ca221f5!8m2!3d-7.824557!4d110.373333!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgEGbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU14ZFdaaFVFTlJFQUXgAQD6AQUIiQMQSA!16s%2Fg%2F11gg70mrd3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PASAR+TELO+KARANGKAJEN/@-7.824557,110.3553086,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a57a67b5c9edd:0xe839e384ca221f5!8m2!3d-7.824557!4d110.373333!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgEGbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU14ZFdaaFVFTlJFQUXgAQD6AQUIiQMQSA!16s%2Fg%2F11gg70mrd3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -1097,25 +1076,24 @@
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.5</v>
+        <v>-7.783177</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.783177</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.358795</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Pingit/@-7.7831769,110.3407702,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a591cd264e817:0x3df83411fe8c52e!8m2!3d-7.7831769!4d110.3587946!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgEGbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVEyYmtwaVJ6QlJSUkFC4AEA-gEECAAQLw!16s%2Fg%2F11j4wl55z7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Pingit/@-7.7831769,110.3407702,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a591cd264e817:0x3df83411fe8c52e!8m2!3d-7.7831769!4d110.3587946!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgEGbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVEyYmtwaVJ6QlJSUkFC4AEA-gEECAAQLw!16s%2Fg%2F11j4wl55z7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>12 jam lalu</t>
         </is>
@@ -1134,25 +1112,24 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.3</v>
+        <v>-7.780972</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.780972</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.388592</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bakul+sayur/@-7.7809722,110.3705676,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a59cf16996e03:0xe644d46c16427bcd!8m2!3d-7.7809722!4d110.388592!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgESdHJhZGl0aW9uYWxfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5QYkdWMldWVkJFQUXgAQD6AQQIABAz!16s%2Fg%2F1hm58bccq?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bakul+sayur/@-7.7809722,110.3705676,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a59cf16996e03:0xe644d46c16427bcd!8m2!3d-7.7809722!4d110.388592!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgESdHJhZGl0aW9uYWxfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5QYkdWMldWVkJFQUXgAQD6AQQIABAz!16s%2Fg%2F1hm58bccq?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -1171,25 +1148,24 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.4</v>
+        <v>-7.832143</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.832143</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.387763</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Induk+Buah+dan+Sayur+Giwangan/@-7.8321427,110.3697387,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a570345c234dd:0x80372ea75c77707e!8m2!3d-7.8321427!4d110.3877631!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgESdHJhZGl0aW9uYWxfbWFya2V04AEA!16s%2Fg%2F11b7kjyjy3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Induk+Buah+dan+Sayur+Giwangan/@-7.8321427,110.3697387,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a570345c234dd:0x80372ea75c77707e!8m2!3d-7.8321427!4d110.3877631!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgESdHJhZGl0aW9uYWxfbWFya2V04AEA!16s%2Fg%2F11b7kjyjy3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -1208,25 +1184,24 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.4</v>
+        <v>-7.809368</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.809368</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.355934</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Tamansari(%EA%A7%8B%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%A0%EA%A6%A9%EA%A6%A4%EA%A7%80%EA%A6%B1%EA%A6%AB%EA%A6%B6)/@-7.8093681,110.3379097,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a579326bc40f1:0xe99a064206730f4d!8m2!3d-7.8093681!4d110.3559341!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgESdHJhZGl0aW9uYWxfbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5QWjNCWFkzWm5SUkFC4AEA-gEECAAQOw!16s%2Fg%2F11b6371ml7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Tamansari(%EA%A7%8B%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%A0%EA%A6%A9%EA%A6%A4%EA%A7%80%EA%A6%B1%EA%A6%AB%EA%A6%B6)/@-7.8093681,110.3379097,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a579326bc40f1:0xe99a064206730f4d!8m2!3d-7.8093681!4d110.3559341!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgESdHJhZGl0aW9uYWxfbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5QWjNCWFkzWm5SUkFC4AEA-gEECAAQOw!16s%2Fg%2F11b6371ml7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1245,25 +1220,24 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.5</v>
+        <v>-7.825182</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.825182</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.355093</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Satwa+dan+Tanaman+Hias+Yogyakarta+(PASTY)/@-7.8251816,110.3370682,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a57c7f7d8553b:0xa542b2a515032e3a!8m2!3d-7.8251816!4d110.3550926!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgEJcGV0X3N0b3Jl4AEA!16s%2Fg%2F11bc6vk793?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Satwa+dan+Tanaman+Hias+Yogyakarta+(PASTY)/@-7.8251816,110.3370682,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a57c7f7d8553b:0xa542b2a515032e3a!8m2!3d-7.8251816!4d110.3550926!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgEJcGV0X3N0b3Jl4AEA!16s%2Fg%2F11bc6vk793?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>13 jam lalu</t>
         </is>
@@ -1286,25 +1260,24 @@
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.2</v>
+        <v>-7.781239</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.781239</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.37236</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Terban/@-7.7812392,110.3543351,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a58315941ca43:0xfb63bb0c46867c25!8m2!3d-7.7812392!4d110.3723595!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgEGbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJYTTBwcVMwVjNFQUXgAQD6AQQIJxA8!16s%2Fg%2F1hm4t1gv0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Terban/@-7.7812392,110.3543351,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a58315941ca43:0xfb63bb0c46867c25!8m2!3d-7.7812392!4d110.3723595!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgEGbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJYTTBwcVMwVjNFQUXgAQD6AQQIJxA8!16s%2Fg%2F1hm4t1gv0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1323,25 +1296,24 @@
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.3</v>
+        <v>-7.761345</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.761345</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.362834</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Kutu/@-7.7613449,110.3448092,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a585bc84c16d3:0x7c8ec8b1852ab648!8m2!3d-7.7613449!4d110.3628336!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgESdHJhZGl0aW9uYWxfbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5MYURsUGFuRlJSUkFC4AEA-gEECAAQRg!16s%2Fg%2F11b77m8kkc?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Kutu/@-7.7613449,110.3448092,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a585bc84c16d3:0x7c8ec8b1852ab648!8m2!3d-7.7613449!4d110.3628336!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgESdHJhZGl0aW9uYWxfbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5MYURsUGFuRlJSUkFC4AEA-gEECAAQRg!16s%2Fg%2F11b77m8kkc?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -1360,25 +1332,24 @@
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F25" t="n">
-        <v>4.3</v>
+        <v>-7.799243</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.799243</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.366808</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Senthir/@-7.7992434,110.348784,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a57889d0715fb:0x5216ab89da0751f8!8m2!3d-7.7992434!4d110.3668084!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgEGbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJoT1dWNU1FUm5FQUXgAQD6AQQIABBI!16s%2Fg%2F1hm1y1423?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Senthir/@-7.7992434,110.348784,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a57889d0715fb:0x5216ab89da0751f8!8m2!3d-7.7992434!4d110.3668084!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgEGbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJoT1dWNU1FUm5FQUXgAQD6AQQIABBI!16s%2Fg%2F1hm1y1423?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -1397,25 +1368,24 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F26" t="n">
-        <v>4.5</v>
+        <v>-7.702292</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.702292</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.348347</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Tradisional+Sleman+Baru/@-7.7022924,110.3303223,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a5f45d6ce7e91:0x342ee32a17ff43bb!8m2!3d-7.7022924!4d110.3483467!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgEGbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVIwTkhacVUzSlJSUkFC4AEA-gEECAAQPQ!16s%2Fg%2F11crydckrs?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Tradisional+Sleman+Baru/@-7.7022924,110.3303223,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a5f45d6ce7e91:0x342ee32a17ff43bb!8m2!3d-7.7022924!4d110.3483467!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgEGbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVIwTkhacVUzSlJSUkFC4AEA-gEECAAQPQ!16s%2Fg%2F11crydckrs?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -1434,25 +1404,24 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F27" t="n">
-        <v>4.5</v>
+        <v>-7.793331</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.793331</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.359815</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PASAR+NGEBUK/@-7.793331,110.3417908,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a5821212f3af7:0x34ed56a391657a44!8m2!3d-7.793331!4d110.3598152!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgEOcHJvZHVjZV9tYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUk9iVTUyZDJaM0VBReABAPoBBAgAEB0!16s%2Fg%2F11dxhz356h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PASAR+NGEBUK/@-7.793331,110.3417908,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a5821212f3af7:0x34ed56a391657a44!8m2!3d-7.793331!4d110.3598152!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgEOcHJvZHVjZV9tYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUk9iVTUyZDJaM0VBReABAPoBBAgAEB0!16s%2Fg%2F11dxhz356h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -1471,25 +1440,24 @@
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F28" t="n">
-        <v>4.4</v>
+        <v>-7.806369</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.806369</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.365771</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Musikanan/@-7.793331,110.3417908,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a574850a6f851:0x81cf8bc1078d0808!8m2!3d-7.8063686!4d110.3657709!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgESdHJhZGl0aW9uYWxfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU0yWnpWTFRraG5FQUXgAQD6AQQIABA_!16s%2Fg%2F11qjvbs7s2?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Musikanan/@-7.793331,110.3417908,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a574850a6f851:0x81cf8bc1078d0808!8m2!3d-7.8063686!4d110.3657709!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgESdHJhZGl0aW9uYWxfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU0yWnpWTFRraG5FQUXgAQD6AQQIABA_!16s%2Fg%2F11qjvbs7s2?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1508,25 +1476,24 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F29" t="n">
-        <v>4.5</v>
+        <v>-7.801484</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.801484</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.361428</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Sore+Ramadhan+Kampung+Kauman+Yogyakarta/@-7.793331,110.3417908,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a578eb2a11c7b:0xa808089d2275857e!8m2!3d-7.801484!4d110.3614278!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgEGbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJTTVZwWE5GVkJFQUXgAQD6AQQIXBBD!16s%2Fg%2F11bzq4qnn6?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Sore+Ramadhan+Kampung+Kauman+Yogyakarta/@-7.793331,110.3417908,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a578eb2a11c7b:0xa808089d2275857e!8m2!3d-7.801484!4d110.3614278!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgEGbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJTTVZwWE5GVkJFQUXgAQD6AQQIXBBD!16s%2Fg%2F11bzq4qnn6?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -1545,25 +1512,24 @@
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F30" t="n">
-        <v>4.4</v>
+        <v>-7.772778</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.772778</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.361617</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Karangwaru(%EA%A7%8B%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%8F%EA%A6%AB%EA%A6%81%EA%A6%AE%EA%A6%AB%EA%A6%B8)/@-7.7727776,110.3435925,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a5846dc4ce3b3:0x2637efb9709d9528!8m2!3d-7.7727776!4d110.3616169!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgESdHJhZGl0aW9uYWxfbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5oYWxCRVNUQlJSUkFC4AEA-gEECAAQNQ!16s%2Fg%2F11c54bq5fb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Karangwaru(%EA%A7%8B%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%8F%EA%A6%AB%EA%A6%81%EA%A6%AE%EA%A6%AB%EA%A6%B8)/@-7.7727776,110.3435925,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a5846dc4ce3b3:0x2637efb9709d9528!8m2!3d-7.7727776!4d110.3616169!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgESdHJhZGl0aW9uYWxfbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5oYWxCRVNUQlJSUkFC4AEA-gEECAAQNQ!16s%2Fg%2F11c54bq5fb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1586,25 +1552,24 @@
           <t>0813-3558-6108</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>4</v>
+      </c>
       <c r="F31" t="n">
-        <v>4</v>
+        <v>-7.805676</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.805676</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.370538</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Sawo/@-7.8056759,110.3525132,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a5784cf975f35:0xf4b6b56743e7ebba!8m2!3d-7.8056759!4d110.3705376!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgEOcHJvZHVjZV9tYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUnRjWEUyVDBSM0VBReABAPoBBAgAEDk!16s%2Fg%2F11cs0dgysr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Sawo/@-7.8056759,110.3525132,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a5784cf975f35:0xf4b6b56743e7ebba!8m2!3d-7.8056759!4d110.3705376!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgEOcHJvZHVjZV9tYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUnRjWEUyVDBSM0VBReABAPoBBAgAEDk!16s%2Fg%2F11cs0dgysr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1623,25 +1588,24 @@
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F32" t="n">
-        <v>4.6</v>
+        <v>-7.799185</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.799185</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.366411</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Klithikan+Sentir/@-7.8056759,110.3525132,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a574ad93fa65b:0x639a17d59161ac8c!8m2!3d-7.799185!4d110.366411!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgELZmxlYV9tYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTkVOeTFwWTA5UkVBReABAPoBBAgAED4!16s%2Fg%2F11rg18dtlb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Klithikan+Sentir/@-7.8056759,110.3525132,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a574ad93fa65b:0x639a17d59161ac8c!8m2!3d-7.799185!4d110.366411!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgELZmxlYV9tYXJrZXSaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTkVOeTFwWTA5UkVBReABAPoBBAgAED4!16s%2Fg%2F11rg18dtlb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>1 jam lalu</t>
         </is>
@@ -1660,25 +1624,24 @@
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F33" t="n">
-        <v>4.5</v>
+        <v>-7.820011</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.820011</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.368129</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Prawirotaman/@-7.8056759,110.3525132,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a57a33e0c1417:0xa0d0b8f317802062!8m2!3d-7.8200112!4d110.368129!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgEGbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5zYW1WWWJsQjNFQUXgAQD6AQQIABA_!16s%2Fg%2F11bysjx1j8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Prawirotaman/@-7.8056759,110.3525132,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a57a33e0c1417:0xa0d0b8f317802062!8m2!3d-7.8200112!4d110.368129!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgEGbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5zYW1WWWJsQjNFQUXgAQD6AQQIABA_!16s%2Fg%2F11bysjx1j8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
         <is>
           <t>6 jam lalu</t>
         </is>
@@ -1697,25 +1660,24 @@
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F34" t="n">
-        <v>4.6</v>
+        <v>-7.799232</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.799232</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.366002</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Sore+Malioboro/@-7.8056759,110.3525132,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a57889294e623:0xbc443b8ba7b436d6!8m2!3d-7.7992325!4d110.3660017!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgELZmxlYV9tYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTkhaMlkzTVhsQlJSQULgAQD6AQUIzwEQPA!16s%2Fg%2F1hm246mv_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Sore+Malioboro/@-7.8056759,110.3525132,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a57889294e623:0xbc443b8ba7b436d6!8m2!3d-7.7992325!4d110.3660017!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgELZmxlYV9tYXJrZXSaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTkhaMlkzTVhsQlJSQULgAQD6AQUIzwEQPA!16s%2Fg%2F1hm246mv_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -1738,25 +1700,24 @@
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F35" t="n">
-        <v>4.5</v>
+        <v>-7.815686</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.815686</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.354892</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Condronegaran/@-7.8156858,110.3368679,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a57c06aaaaaab:0x42ed710c4d2490d4!8m2!3d-7.8156858!4d110.3548923!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgEGbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5YYmt4Nk1EQm5SUkFC4AEA-gEECAAQPg!16s%2Fg%2F11b6cl0vh8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Condronegaran/@-7.8156858,110.3368679,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a57c06aaaaaab:0x42ed710c4d2490d4!8m2!3d-7.8156858!4d110.3548923!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgEGbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5YYmt4Nk1EQm5SUkFC4AEA-gEECAAQPg!16s%2Fg%2F11b6cl0vh8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -1775,25 +1736,24 @@
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F36" t="n">
-        <v>4.5</v>
+        <v>-7.811011</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.811011</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.383534</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Shelter+Pasar+Terban+Yogyakarta/@-7.8110107,110.3655098,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a57e505b817fb:0x7e152c31460687e7!8m2!3d-7.8110107!4d110.3835342!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgEGbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5LYURsUVJUbDNSUkFC4AEA-gEECAAQOw!16s%2Fg%2F11kj_bbplq?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J36" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Shelter+Pasar+Terban+Yogyakarta/@-7.8110107,110.3655098,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a57e505b817fb:0x7e152c31460687e7!8m2!3d-7.8110107!4d110.3835342!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgEGbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5LYURsUVJUbDNSUkFC4AEA-gEECAAQOw!16s%2Fg%2F11kj_bbplq?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1812,25 +1772,24 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F37" t="n">
-        <v>4.4</v>
+        <v>-7.803422</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.803422</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.398774</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Gedong+Kuning/@-7.803422,110.3807496,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a576636285eeb:0x561b29051d24f6f8!8m2!3d-7.803422!4d110.398774!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgEGbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJYY25NMlJrVjNFQUXgAQD6AQQIABBD!16s%2Fg%2F1hm31vhvg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Gedong+Kuning/@-7.803422,110.3807496,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a576636285eeb:0x561b29051d24f6f8!8m2!3d-7.803422!4d110.398774!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgEGbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJYY25NMlJrVjNFQUXgAQD6AQQIABBD!16s%2Fg%2F1hm31vhvg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1849,25 +1808,24 @@
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>5</v>
+      </c>
       <c r="F38" t="n">
-        <v>5</v>
+        <v>-7.80958</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.80958</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.36578</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Kluwih(%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%8F%EA%A7%80%EA%A6%AD%EA%A6%B8%EA%A6%AE%EA%A6%B6%EA%A6%83)/@-7.80958,110.3477556,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a57993dd3daef:0x345928e06c82d6a9!8m2!3d-7.80958!4d110.36578!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgEGbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5sZUdWVGRHTkJFQUXgAQD6AQQIABAX!16s%2Fg%2F11qgyq596s?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Kluwih(%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%8F%EA%A7%80%EA%A6%AD%EA%A6%B8%EA%A6%AE%EA%A6%B6%EA%A6%83)/@-7.80958,110.3477556,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a57993dd3daef:0x345928e06c82d6a9!8m2!3d-7.80958!4d110.36578!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgEGbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5sZUdWVGRHTkJFQUXgAQD6AQQIABAX!16s%2Fg%2F11qgyq596s?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1890,25 +1848,24 @@
           <t>0856-4304-4378</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F39" t="n">
-        <v>4.1</v>
+        <v>-7.824159</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.824159</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.373184</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Nasi+goreng+mas+karebet+pasar+telo/@-7.80958,110.3477556,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a57a67b0e8399:0x73964a99c7b7afdf!8m2!3d-7.8241591!4d110.3731842!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGGSARJ0cmFkaXRpb25hbF9tYXJrZXTgAQA!16s%2Fg%2F11bysjrf93?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Nasi+goreng+mas+karebet+pasar+telo/@-7.80958,110.3477556,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a57a67b0e8399:0x73964a99c7b7afdf!8m2!3d-7.8241591!4d110.3731842!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGGSARJ0cmFkaXRpb25hbF9tYXJrZXTgAQA!16s%2Fg%2F11bysjrf93?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -1927,25 +1884,24 @@
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F40" t="n">
-        <v>4.5</v>
+        <v>-7.79486</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.79486</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.368761</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Jambu+(Suryatmajan)/@-7.7948602,110.3507364,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a598d9163b723:0xd33c52ba5d481f42!8m2!3d-7.7948602!4d110.3687608!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgESdHJhZGl0aW9uYWxfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5sTm04eVNFeFJFQUXgAQD6AQQIABAp!16s%2Fg%2F11h1f2728q?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Jambu+(Suryatmajan)/@-7.7948602,110.3507364,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a598d9163b723:0xd33c52ba5d481f42!8m2!3d-7.7948602!4d110.3687608!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgESdHJhZGl0aW9uYWxfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5sTm04eVNFeFJFQUXgAQD6AQQIABAp!16s%2Fg%2F11h1f2728q?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -1964,25 +1920,24 @@
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F41" t="n">
-        <v>4.5</v>
+        <v>-7.780738</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.780738</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.400208</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Desa+Caturtunggal/@-7.7807378,110.3821833,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a59c25da3e1a3:0x71deafe1afac89c7!8m2!3d-7.7807378!4d110.4002077!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgEGbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU50ZFhKNVdERjNSUkFC4AEA-gEECAAQKA!16s%2Fg%2F11cjnpm8by?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J41" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Desa+Caturtunggal/@-7.7807378,110.3821833,15z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kota+Yogyakarta!3m6!1s0x2e7a59c25da3e1a3:0x71deafe1afac89c7!8m2!3d-7.7807378!4d110.4002077!15sCiFQYXNhciBUcmFkaXNpb25hbCBLb3RhIFlvZ3lha2FydGFaIyIhcGFzYXIgdHJhZGlzaW9uYWwga290YSB5b2d5YWthcnRhkgEGbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU50ZFhKNVdERjNSUkFC4AEA-gEECAAQKA!16s%2Fg%2F11cjnpm8by?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
